--- a/electrotehnica.xlsx
+++ b/electrotehnica.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7A3F1-FA36-46DD-95E1-04DD4D7B7FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FFF98E-A3E3-4E27-9011-D9FD6D48D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="1052">
   <si>
     <t>Varianta a</t>
   </si>
@@ -3897,6 +3897,9 @@
   </si>
   <si>
     <t>Option C</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -53793,8 +53796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55741,7 +55744,7 @@
     </row>
     <row r="116" spans="1:5" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
-        <v>384</v>
+        <v>1051</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>385</v>
